--- a/biology/Botanique/Schlossgarten_(Kiel)/Schlossgarten_(Kiel).xlsx
+++ b/biology/Botanique/Schlossgarten_(Kiel)/Schlossgarten_(Kiel).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le Schlossgarten (ou Schloßgarten, jardin du château) est un jardin public situé à Kiel, capitale du Schleswig-Holstein dans le nord de l'Allemagne. Il se trouve au nord du château de Kiel, entre la rue du même nom, la Hegewischstraße, le Düsternbrooker Weg et la rue Prinzengarten[1]. Il s'étend sur environ trois hectares, mesure 300 mètres de long pour 100 mètres de large. Dans sa partie nord, l'on trouve le jardin des sculptures de la Kunsthalle de Kiel.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Schlossgarten (ou Schloßgarten, jardin du château) est un jardin public situé à Kiel, capitale du Schleswig-Holstein dans le nord de l'Allemagne. Il se trouve au nord du château de Kiel, entre la rue du même nom, la Hegewischstraße, le Düsternbrooker Weg et la rue Prinzengarten. Il s'étend sur environ trois hectares, mesure 300 mètres de long pour 100 mètres de large. Dans sa partie nord, l'on trouve le jardin des sculptures de la Kunsthalle de Kiel.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le jardin du château de Kiel a été conçu comme un petit jardin de style Renaissance, en harmonie avec le château de Kiel, construit pour le duc Adolphe de Holstein-Gottorp de 1558 à 1568. La duchesse Frédérique-Amélie refait dessiner le jardin en style baroque en 1695, mais au fil du temps il est mal entretenu et in est transformé en jardin à l'anglaise au milieu du XIXe siècle[2]. Après la Seconde Guerre mondiale, le jardin est totalement ravagé. La partie haute est plus tard transformée en parking pour la clinique universitaire. En 2007, les plates-bandes autour de la statue équestre sont réaménagées d'après les sources historiques. En 2010, les terrasses sont reconstruites[3]. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le jardin du château de Kiel a été conçu comme un petit jardin de style Renaissance, en harmonie avec le château de Kiel, construit pour le duc Adolphe de Holstein-Gottorp de 1558 à 1568. La duchesse Frédérique-Amélie refait dessiner le jardin en style baroque en 1695, mais au fil du temps il est mal entretenu et in est transformé en jardin à l'anglaise au milieu du XIXe siècle. Après la Seconde Guerre mondiale, le jardin est totalement ravagé. La partie haute est plus tard transformée en parking pour la clinique universitaire. En 2007, les plates-bandes autour de la statue équestre sont réaménagées d'après les sources historiques. En 2010, les terrasses sont reconstruites. 
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Monuments</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Statue équestre de l'empereur Guillaume Ier par Adolf Brütt (1896)
 Monument aux morts de 26 citoyens de Kiel, morts pendant la Guerre de 1870-1871, érigé par étapes entre 1879 et 1905 selon les plans de l'architecte Heinrich Moldenschardt avec des sculptures de Rudolf Siemering.
@@ -574,9 +590,11 @@
           <t>Jardin des sculptures</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La partie Nord du jardin abrite depuis 1986 le jardin des sculptures de la Kunsthalle de Kiel. Il présente des œuvres de Bård Breivik, August Endell, Per Kirkeby, Alf Lechner, Bjørn Nørgaard, Karl Prantl (de) et James Reineking[4].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La partie Nord du jardin abrite depuis 1986 le jardin des sculptures de la Kunsthalle de Kiel. Il présente des œuvres de Bård Breivik, August Endell, Per Kirkeby, Alf Lechner, Bjørn Nørgaard, Karl Prantl (de) et James Reineking.
 </t>
         </is>
       </c>
@@ -605,7 +623,9 @@
           <t>Illustrations</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">
 	Schlossgarten
